--- a/Dados macros/Base de dados Dólar.xlsx
+++ b/Dados macros/Base de dados Dólar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\regressão\Dados macros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Dados macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEFB8C9-4C7F-457E-90E4-5205DE1164E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2FFC00-E939-4D0F-B1F5-6955CF680B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="11400" windowHeight="9876" xr2:uid="{4154A1DA-0AE2-4ABF-BF73-830E4BBE5EDC}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{4154A1DA-0AE2-4ABF-BF73-830E4BBE5EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Ano</t>
   </si>
   <si>
     <t>dolar</t>
   </si>
+  <si>
+    <t>valor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,14 +84,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -393,227 +406,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC84C1BC-EA03-48CB-ABBE-45ACA79A6685}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2000</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>1.9678</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
+        <f>(LN(C3)/LN(C2)) -1</f>
+        <v>0.28343772978044735</v>
+      </c>
+      <c r="C3">
         <v>2.3839999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>2002</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
+        <f>(LN(C4)/LN(C3)) -1</f>
+        <v>0.51653351353737098</v>
+      </c>
+      <c r="C4">
         <v>3.7342</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
+        <f>(LN(C5)/LN(C4)) -1</f>
+        <v>-0.18426104494830009</v>
+      </c>
+      <c r="C5">
         <v>2.9293</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
+        <f>(LN(C6)/LN(C5)) -1</f>
+        <v>-5.849818025485487E-2</v>
+      </c>
+      <c r="C6">
         <v>2.7507999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
+        <f>(LN(C7)/LN(C6)) -1</f>
+        <v>-0.17872857000455511</v>
+      </c>
+      <c r="C7">
         <v>2.2957000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
+        <f>(LN(C8)/LN(C7)) -1</f>
+        <v>-8.0581519115255573E-2</v>
+      </c>
+      <c r="C8">
         <v>2.1469999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
+        <f>(LN(C9)/LN(C8)) -1</f>
+        <v>-0.23370224571640486</v>
+      </c>
+      <c r="C9">
         <v>1.7959000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
+        <f>(LN(C10)/LN(C9)) -1</f>
+        <v>0.47302931038878326</v>
+      </c>
+      <c r="C10">
         <v>2.3690000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
+        <f>(LN(C11)/LN(C10)) -1</f>
+        <v>-0.34737557031150956</v>
+      </c>
+      <c r="C11">
         <v>1.7557</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
+        <f>(LN(C12)/LN(C11)) -1</f>
+        <v>-5.8531555420781256E-2</v>
+      </c>
+      <c r="C12">
         <v>1.6988000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
+        <f>(LN(C13)/LN(C12)) -1</f>
+        <v>0.17198399323556512</v>
+      </c>
+      <c r="C13">
         <v>1.8609</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
+        <f>(LN(C14)/LN(C13)) -1</f>
+        <v>0.18231545771230295</v>
+      </c>
+      <c r="C14">
         <v>2.0840000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
+        <f>(LN(C15)/LN(C14)) -1</f>
+        <v>0.15510792011301122</v>
+      </c>
+      <c r="C15">
         <v>2.3353999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
+        <f>(LN(C16)/LN(C15)) -1</f>
+        <v>0.15861171738943902</v>
+      </c>
+      <c r="C16">
         <v>2.6717</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
+        <f>(LN(C17)/LN(C16)) -1</f>
+        <v>0.37713585254127446</v>
+      </c>
+      <c r="C17">
         <v>3.8702999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
+        <f>(LN(C18)/LN(C17)) -1</f>
+        <v>-9.9435416653124831E-2</v>
+      </c>
+      <c r="C18">
         <v>3.383</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
+        <f>(LN(C19)/LN(C18)) -1</f>
+        <v>-1.6017274575666707E-2</v>
+      </c>
+      <c r="C19">
         <v>3.3176000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
+        <f>(LN(C20)/LN(C19)) -1</f>
+        <v>0.13678640964758504</v>
+      </c>
+      <c r="C20">
         <v>3.9089999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
+        <f>(LN(C21)/LN(C20)) -1</f>
+        <v>2.237953114812341E-2</v>
+      </c>
+      <c r="C21">
         <v>4.0301</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
+        <f>(LN(C22)/LN(C21)) -1</f>
+        <v>0.18232082148032802</v>
+      </c>
+      <c r="C22">
         <v>5.1961000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>A22+1</f>
         <v>2021</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
+        <f>(LN(C23)/LN(C22)) -1</f>
+        <v>4.3244219947039753E-2</v>
+      </c>
+      <c r="C23">
         <v>5.5799000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
+        <f>(LN(C24)/LN(C23)) -1</f>
+        <v>-1.8416672861666705E-2</v>
+      </c>
+      <c r="C24">
         <v>5.4059999999999997</v>
       </c>
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados macros/Base de dados Dólar.xlsx
+++ b/Dados macros/Base de dados Dólar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Dados macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2FFC00-E939-4D0F-B1F5-6955CF680B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA5DF80-0DBF-46A3-A7F3-6E1F7C7BA523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{4154A1DA-0AE2-4ABF-BF73-830E4BBE5EDC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4154A1DA-0AE2-4ABF-BF73-830E4BBE5EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC84C1BC-EA03-48CB-ABBE-45ACA79A6685}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -618,7 +618,7 @@
         <v>2.6717</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -631,7 +631,7 @@
         <v>3.8702999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -644,7 +644,7 @@
         <v>3.383</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -657,7 +657,7 @@
         <v>3.3176000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -670,7 +670,7 @@
         <v>3.9089999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -683,7 +683,7 @@
         <v>4.0301</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -696,7 +696,7 @@
         <v>5.1961000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>A22+1</f>
         <v>2021</v>
@@ -709,7 +709,7 @@
         <v>5.5799000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -721,7 +721,6 @@
       <c r="C24">
         <v>5.4059999999999997</v>
       </c>
-      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados macros/Base de dados Dólar.xlsx
+++ b/Dados macros/Base de dados Dólar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Dados macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA5DF80-0DBF-46A3-A7F3-6E1F7C7BA523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F0C334-757F-4747-919B-1F2B322D7E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4154A1DA-0AE2-4ABF-BF73-830E4BBE5EDC}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{4154A1DA-0AE2-4ABF-BF73-830E4BBE5EDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Ano</t>
   </si>
   <si>
-    <t>dolar</t>
+    <t>valor</t>
   </si>
   <si>
-    <t>valor</t>
+    <t>Câmbio</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,10 +419,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -442,7 +442,7 @@
         <v>2001</v>
       </c>
       <c r="B3" s="1">
-        <f>(LN(C3)/LN(C2)) -1</f>
+        <f t="shared" ref="B3:B24" si="0">(LN(C3)/LN(C2)) -1</f>
         <v>0.28343772978044735</v>
       </c>
       <c r="C3">
@@ -451,11 +451,11 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A24" si="0">A3+1</f>
+        <f t="shared" ref="A4:A24" si="1">A3+1</f>
         <v>2002</v>
       </c>
       <c r="B4" s="1">
-        <f>(LN(C4)/LN(C3)) -1</f>
+        <f t="shared" si="0"/>
         <v>0.51653351353737098</v>
       </c>
       <c r="C4">
@@ -464,11 +464,11 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2003</v>
       </c>
       <c r="B5" s="1">
-        <f>(LN(C5)/LN(C4)) -1</f>
+        <f t="shared" si="0"/>
         <v>-0.18426104494830009</v>
       </c>
       <c r="C5">
@@ -477,11 +477,11 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2004</v>
       </c>
       <c r="B6" s="1">
-        <f>(LN(C6)/LN(C5)) -1</f>
+        <f t="shared" si="0"/>
         <v>-5.849818025485487E-2</v>
       </c>
       <c r="C6">
@@ -490,11 +490,11 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2005</v>
       </c>
       <c r="B7" s="1">
-        <f>(LN(C7)/LN(C6)) -1</f>
+        <f t="shared" si="0"/>
         <v>-0.17872857000455511</v>
       </c>
       <c r="C7">
@@ -503,11 +503,11 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2006</v>
       </c>
       <c r="B8" s="1">
-        <f>(LN(C8)/LN(C7)) -1</f>
+        <f t="shared" si="0"/>
         <v>-8.0581519115255573E-2</v>
       </c>
       <c r="C8">
@@ -516,11 +516,11 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2007</v>
       </c>
       <c r="B9" s="1">
-        <f>(LN(C9)/LN(C8)) -1</f>
+        <f t="shared" si="0"/>
         <v>-0.23370224571640486</v>
       </c>
       <c r="C9">
@@ -529,11 +529,11 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2008</v>
       </c>
       <c r="B10" s="1">
-        <f>(LN(C10)/LN(C9)) -1</f>
+        <f t="shared" si="0"/>
         <v>0.47302931038878326</v>
       </c>
       <c r="C10">
@@ -542,11 +542,11 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2009</v>
       </c>
       <c r="B11" s="1">
-        <f>(LN(C11)/LN(C10)) -1</f>
+        <f t="shared" si="0"/>
         <v>-0.34737557031150956</v>
       </c>
       <c r="C11">
@@ -555,11 +555,11 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2010</v>
       </c>
       <c r="B12" s="1">
-        <f>(LN(C12)/LN(C11)) -1</f>
+        <f t="shared" si="0"/>
         <v>-5.8531555420781256E-2</v>
       </c>
       <c r="C12">
@@ -568,11 +568,11 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2011</v>
       </c>
       <c r="B13" s="1">
-        <f>(LN(C13)/LN(C12)) -1</f>
+        <f t="shared" si="0"/>
         <v>0.17198399323556512</v>
       </c>
       <c r="C13">
@@ -581,11 +581,11 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2012</v>
       </c>
       <c r="B14" s="1">
-        <f>(LN(C14)/LN(C13)) -1</f>
+        <f t="shared" si="0"/>
         <v>0.18231545771230295</v>
       </c>
       <c r="C14">
@@ -594,11 +594,11 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2013</v>
       </c>
       <c r="B15" s="1">
-        <f>(LN(C15)/LN(C14)) -1</f>
+        <f t="shared" si="0"/>
         <v>0.15510792011301122</v>
       </c>
       <c r="C15">
@@ -607,11 +607,11 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2014</v>
       </c>
       <c r="B16" s="1">
-        <f>(LN(C16)/LN(C15)) -1</f>
+        <f t="shared" si="0"/>
         <v>0.15861171738943902</v>
       </c>
       <c r="C16">
@@ -620,11 +620,11 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2015</v>
       </c>
       <c r="B17" s="1">
-        <f>(LN(C17)/LN(C16)) -1</f>
+        <f t="shared" si="0"/>
         <v>0.37713585254127446</v>
       </c>
       <c r="C17">
@@ -633,11 +633,11 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="B18" s="1">
-        <f>(LN(C18)/LN(C17)) -1</f>
+        <f t="shared" si="0"/>
         <v>-9.9435416653124831E-2</v>
       </c>
       <c r="C18">
@@ -646,11 +646,11 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="B19" s="1">
-        <f>(LN(C19)/LN(C18)) -1</f>
+        <f t="shared" si="0"/>
         <v>-1.6017274575666707E-2</v>
       </c>
       <c r="C19">
@@ -659,11 +659,11 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2018</v>
       </c>
       <c r="B20" s="1">
-        <f>(LN(C20)/LN(C19)) -1</f>
+        <f t="shared" si="0"/>
         <v>0.13678640964758504</v>
       </c>
       <c r="C20">
@@ -672,11 +672,11 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2019</v>
       </c>
       <c r="B21" s="1">
-        <f>(LN(C21)/LN(C20)) -1</f>
+        <f t="shared" si="0"/>
         <v>2.237953114812341E-2</v>
       </c>
       <c r="C21">
@@ -685,11 +685,11 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2020</v>
       </c>
       <c r="B22" s="1">
-        <f>(LN(C22)/LN(C21)) -1</f>
+        <f t="shared" si="0"/>
         <v>0.18232082148032802</v>
       </c>
       <c r="C22">
@@ -702,7 +702,7 @@
         <v>2021</v>
       </c>
       <c r="B23" s="1">
-        <f>(LN(C23)/LN(C22)) -1</f>
+        <f t="shared" si="0"/>
         <v>4.3244219947039753E-2</v>
       </c>
       <c r="C23">
@@ -711,11 +711,11 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2022</v>
       </c>
       <c r="B24" s="1">
-        <f>(LN(C24)/LN(C23)) -1</f>
+        <f t="shared" si="0"/>
         <v>-1.8416672861666705E-2</v>
       </c>
       <c r="C24">
